--- a/ig/ch-etoc/StructureDefinition-ch-etoc-bodyheight-observation.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-bodyheight-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T16:16:29+01:00</t>
+    <t>2023-12-28T11:52:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2254,17 +2254,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.42578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.29296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2273,28 +2273,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="88.15234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.83984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.17578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.97265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-bodyheight-observation.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-bodyheight-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:52:12+01:00</t>
+    <t>2024-05-17T13:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Juerg P. Bleuer (https://www.hl7.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2254,17 +2254,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.29296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.42578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2273,28 +2273,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.17578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.97265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="88.15234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-bodyheight-observation.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-bodyheight-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:00:41+00:00</t>
+    <t>2024-12-18T10:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -11892,7 +11892,7 @@
         <v>83</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="Y80" t="s" s="2">
         <v>599</v>

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-bodyheight-observation.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-bodyheight-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T10:53:43+00:00</t>
+    <t>2025-12-16T15:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -519,7 +519,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -548,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -628,7 +628,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>value:coding.code}
@@ -922,7 +922,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1047,7 +1047,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1070,7 +1070,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1169,7 +1169,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1416,7 +1416,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1448,7 +1448,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1507,7 +1507,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1540,7 +1540,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1552,7 +1552,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1580,7 +1580,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1660,7 +1660,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1710,7 +1710,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1743,7 +1743,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1780,7 +1780,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1802,7 +1802,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2254,17 +2254,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.42578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.08203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2273,28 +2273,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="88.15234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.83984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.9921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3865,7 +3865,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>177</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>216</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>230</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>248</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>284</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>322</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>349</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>391</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>397</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>418</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>427</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>436</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>445</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>578</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>588</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>594</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>603</v>
       </c>
@@ -12317,12 +12317,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP83">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
